--- a/biology/Botanique/Aster_(genre)/Aster_(genre).xlsx
+++ b/biology/Botanique/Aster_(genre)/Aster_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aster (du grec ancien : ἀστήρ / astḗr, « étoile », par analogie avec la forme de l'inflorescence) est un genre de plantes dicotylédones de la famille des Asteraceae (anciennement dénommées composées), très important par le nombre d'espèces (environ 600) et de variétés. Il s'agit de plantes vivaces à floraison automnale. En général, les asters sont rustiques et faciles à cultiver.
 </t>
@@ -511,7 +523,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aster acuminatus Michx.
@@ -607,7 +621,9 @@
           <t>Espèces retirées du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Certaines espèces ont été retirées de ce genre, au profit d'autres genres. Tous les auteurs ne sont pas en accord avec cette révision.
 Pour Aster lanceolatus Willd., voir Symphyotrichum lanceolatum (Willd.) G.L.Nesom
@@ -640,7 +656,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces sont sensibles au mildiou et, surtout, à l'oïdium.
 On peut semer d'avril à juin, valable pour l'aster des Alpes, en pleine terre, en évitant le plein soleil. Repiquage à l'automne ou au printemps. La floraison n'a lieu que l'année suivant le semis.
@@ -673,7 +691,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aster se plante dans les bordures, les rocailles, les jardinières.
 			Aster alpinus.
@@ -711,10 +731,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Langage des fleurs
-Dans le langage des fleurs, l'aster symbolise l'amour confiant[1].
-Mythologie
-L'aster apparait dans plusieurs histoires de la mythologie grecque :
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, l'aster symbolise l'amour confiant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aster_(genre)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aster_(genre)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>L'aster dans la culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mythologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aster apparait dans plusieurs histoires de la mythologie grecque :
 Quand Zeus, las des guerres et disputes des mortels, déclencha le Déluge, cela bouleversa tant Astrée, la déesse de la justice, qu'elle quitta la terre pour devenir la constellation de la Vierge. Mais, en voyant du ciel la destruction alors que les eaux de crue se retiraient, elle pleura pour la perte de tant de vies. Ce sont ces larmes qui, en tombant sur terre, se transformèrent en la belle fleur d'aster.
 Une autre légende dit que les asters se sont formés lorsqu'Astrée (Virgo) a dispersé de la poussière d'étoiles sur la Terre. Partout où la poussière d'étoiles se posa, des fleurs d'aster fleurirent.
 Thésée, fils d'Égée, avait promis à son père qu'il changerait sa voile noire par une blanche quand il rentrerait après avoir tuer le Minotaure. Mais il oublia de changer sa voile en rentrant à Athènes après sa victoire. Apercevant le navire revenant avec une voile noire, Égée cru son fils mort et se suicida, des asters fleurissant là où son sang a imbibé la terre.
